--- a/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{13D00A1C-3391-423C-BCA9-C500E0472599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{466EA5AE-643F-47A3-BA86-92AE19B4764D}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{13D00A1C-3391-423C-BCA9-C500E0472599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDC2279-FB97-4FBD-90A4-359591B18773}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1100,7 +1100,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA51" sqref="AA51:AA53"/>
+      <selection pane="topRight" activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,32 +1273,32 @@
       <c r="X2" s="4">
         <v>0</v>
       </c>
-      <c r="Y2" s="9">
-        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="9">
-        <f t="shared" ref="Z2" si="0">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
+      <c r="Y2" s="2">
+        <f t="shared" ref="Y2:Y4" si="0">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f t="shared" ref="Z2:Z4" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
       </c>
-      <c r="AB2" s="9">
-        <f t="shared" ref="AB2" si="1">Y2*(1-AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="9">
-        <f t="shared" ref="AC2" si="2">Y2*AA2 + Z2</f>
+      <c r="AB2" s="2">
+        <f t="shared" ref="AB2:AB3" si="2">Y2*(1-AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <f t="shared" ref="AC2:AC3" si="3">Y2*AA2 + Z2</f>
         <v>0</v>
       </c>
       <c r="AD2" s="8">
-        <f t="shared" ref="AD2" si="3">1.35*Y2+1.5*Z2</f>
+        <f t="shared" ref="AD2" si="4">1.35*Y2+1.5*Z2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="9">
-        <f t="shared" ref="AF2" si="4">AB2+AC2</f>
+      <c r="AF2" s="2">
+        <f>AB2+AC2</f>
         <v>0</v>
       </c>
       <c r="AP2" s="2"/>
@@ -1378,31 +1378,33 @@
       <c r="X3" s="7">
         <v>0</v>
       </c>
-      <c r="Y3" s="9">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>23.5</v>
+      <c r="Y3" s="2">
+        <f t="shared" si="0"/>
+        <v>57.756160000000001</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="1"/>
+        <v>17.543679999999998</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
-      <c r="AB3" s="9">
-        <f t="shared" ref="AB3" si="6">Y3*(1-AA3)</f>
-        <v>43</v>
-      </c>
-      <c r="AC3" s="9">
-        <f t="shared" ref="AC3" si="7">Y3*AA3 + Z3</f>
-        <v>23.5</v>
+      <c r="AB3" s="2">
+        <f t="shared" si="2"/>
+        <v>57.756160000000001</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="3"/>
+        <v>17.543679999999998</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" ref="AD3" si="8">1.35*Y3+1.5*Z3</f>
-        <v>93.300000000000011</v>
+        <f t="shared" ref="AD3" si="6">1.35*Y3+1.5*Z3</f>
+        <v>104.28633600000001</v>
       </c>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="9">
-        <f t="shared" ref="AF3" si="9">AB3+AC3</f>
-        <v>66.5</v>
+      <c r="AF3" s="2">
+        <f t="shared" ref="AF3:AF53" si="7">AB3+AC3</f>
+        <v>75.299840000000003</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -1481,31 +1483,33 @@
       <c r="X4" s="7">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>21</v>
+      <c r="Y4" s="2">
+        <f t="shared" si="0"/>
+        <v>41.899000000000001</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="1"/>
+        <v>12.726999999999999</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
-      <c r="AB4" s="9">
-        <f t="shared" ref="AB4:AB53" si="10">Y4*(1-AA4)</f>
-        <v>38</v>
-      </c>
-      <c r="AC4" s="9">
-        <f t="shared" ref="AC4:AC53" si="11">Y4*AA4 + Z4</f>
-        <v>21</v>
+      <c r="AB4" s="2">
+        <f t="shared" ref="AB4:AB53" si="8">Y4*(1-AA4)</f>
+        <v>41.899000000000001</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" ref="AC4:AC53" si="9">Y4*AA4 + Z4</f>
+        <v>12.726999999999999</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" ref="AD4:AD53" si="12">1.35*Y4+1.5*Z4</f>
-        <v>82.800000000000011</v>
+        <f t="shared" ref="AD4:AD53" si="10">1.35*Y4+1.5*Z4</f>
+        <v>75.654150000000001</v>
       </c>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF53" si="13">AB4+AC4</f>
-        <v>59</v>
+      <c r="AF4" s="2">
+        <f t="shared" si="7"/>
+        <v>54.625999999999998</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -1584,31 +1588,33 @@
       <c r="X5" s="7">
         <v>0</v>
       </c>
-      <c r="Y5" s="9">
-        <v>64</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>25</v>
+      <c r="Y5" s="2">
+        <f t="shared" ref="Y4:Y53" si="11">IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),V5+X5*V5,IF(A4&lt;A5,V5-X6*V6/2,IF(A5&lt;A6,V5-(X4*V4)/2,V5-(X6*V6+X4*V4)/2))),0)</f>
+        <v>82.508800000000008</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" ref="Z4:Z53" si="12">IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),W5+X5*W5,IF(A4&lt;A5,W5-X6*W6/2,IF(A5&lt;A6,W5-(X4*W4)/2,W5-(X6*W6+X4*W4)/2))),0)</f>
+        <v>25.0624</v>
       </c>
       <c r="AA5" s="3">
         <v>0</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="2">
+        <f t="shared" si="8"/>
+        <v>82.508800000000008</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="9"/>
+        <v>25.0624</v>
+      </c>
+      <c r="AD5" s="8">
         <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="12"/>
-        <v>123.9</v>
+        <v>148.98048000000003</v>
       </c>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="9">
-        <f t="shared" si="13"/>
-        <v>89</v>
+      <c r="AF5" s="2">
+        <f t="shared" si="7"/>
+        <v>107.5712</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -1687,31 +1693,33 @@
       <c r="X6" s="7">
         <v>0</v>
       </c>
-      <c r="Y6" s="9">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>17</v>
+      <c r="Y6" s="2">
+        <f t="shared" ref="Y6:Y53" si="13">IFERROR(IF(ISNUMBER(SEARCH("Appui",C6)),V6+X6*V6,IF(A5&lt;A6,V6-X7*V7/2,IF(A6&lt;A7,V6-(X5*V5)/2,V6-(X7*V7+X5*V5)/2))),0)</f>
+        <v>41.899000000000001</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" ref="Z6:Z53" si="14">IFERROR(IF(ISNUMBER(SEARCH("Appui",C6)),W6+X6*W6,IF(A5&lt;A6,W6-X7*W7/2,IF(A6&lt;A7,W6-(X5*W5)/2,W6-(X7*W7+X5*W5)/2))),0)</f>
+        <v>12.726999999999999</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="2">
+        <f t="shared" si="8"/>
+        <v>41.899000000000001</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="9"/>
+        <v>12.726999999999999</v>
+      </c>
+      <c r="AD6" s="8">
         <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="AC6" s="9">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="AD6" s="8">
-        <f t="shared" si="12"/>
-        <v>84.9</v>
+        <v>75.654150000000001</v>
       </c>
       <c r="AE6" s="8"/>
-      <c r="AF6" s="9">
-        <f t="shared" si="13"/>
-        <v>61</v>
+      <c r="AF6" s="2">
+        <f t="shared" si="7"/>
+        <v>54.625999999999998</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1790,31 +1798,33 @@
       <c r="X7" s="7">
         <v>0</v>
       </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>8.5</v>
+      <c r="Y7" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="14"/>
+        <v>0.22783999999999999</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="2">
+        <f t="shared" si="8"/>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="9"/>
+        <v>0.22783999999999999</v>
+      </c>
+      <c r="AD7" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="12"/>
-        <v>12.75</v>
+        <v>1.354368</v>
       </c>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="9">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
+      <c r="AF7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
@@ -1893,31 +1903,33 @@
       <c r="X8" s="7">
         <v>0</v>
       </c>
-      <c r="Y8" s="9">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>5</v>
+      <c r="Y8" s="2">
+        <f t="shared" si="13"/>
+        <v>0.64460000000000006</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="14"/>
+        <v>0.1958</v>
       </c>
       <c r="AA8" s="3">
         <v>0.25</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="2">
+        <f t="shared" si="8"/>
+        <v>0.48345000000000005</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="9"/>
+        <v>0.35694999999999999</v>
+      </c>
+      <c r="AD8" s="8">
         <f t="shared" si="10"/>
-        <v>2.25</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" si="11"/>
-        <v>5.75</v>
-      </c>
-      <c r="AD8" s="8">
-        <f t="shared" si="12"/>
-        <v>11.55</v>
+        <v>1.1639100000000002</v>
       </c>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="9">
-        <f t="shared" si="13"/>
-        <v>8</v>
+      <c r="AF8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84040000000000004</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
@@ -1996,31 +2008,33 @@
       <c r="X9" s="7">
         <v>0</v>
       </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>8.5</v>
+      <c r="Y9" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="14"/>
+        <v>0.22783999999999999</v>
       </c>
       <c r="AA9" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.37503999999999998</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="9"/>
+        <v>0.60287999999999997</v>
+      </c>
+      <c r="AD9" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="12"/>
-        <v>12.75</v>
+        <v>1.354368</v>
       </c>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="9">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
+      <c r="AF9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
@@ -2098,31 +2112,33 @@
       <c r="X10" s="7">
         <v>0</v>
       </c>
-      <c r="Y10" s="9">
-        <v>35</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>15</v>
+      <c r="Y10" s="2">
+        <f t="shared" si="13"/>
+        <v>36.917999999999999</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="14"/>
+        <v>11.213999999999999</v>
       </c>
       <c r="AA10" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="2">
+        <f t="shared" si="8"/>
+        <v>18.459</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="9"/>
+        <v>29.672999999999998</v>
+      </c>
+      <c r="AD10" s="8">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="AC10" s="9">
-        <f t="shared" si="11"/>
-        <v>32.5</v>
-      </c>
-      <c r="AD10" s="8">
-        <f t="shared" si="12"/>
-        <v>69.75</v>
+        <v>66.660300000000007</v>
       </c>
       <c r="AE10" s="8"/>
-      <c r="AF10" s="9">
-        <f t="shared" si="13"/>
-        <v>50</v>
+      <c r="AF10" s="2">
+        <f t="shared" si="7"/>
+        <v>48.131999999999998</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
@@ -2201,31 +2217,33 @@
       <c r="X11" s="7">
         <v>0</v>
       </c>
-      <c r="Y11" s="9">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>24.2</v>
+      <c r="Y11" s="2">
+        <f t="shared" si="13"/>
+        <v>58.599999999999994</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="14"/>
+        <v>17.8</v>
       </c>
       <c r="AA11" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="2">
+        <f t="shared" si="8"/>
+        <v>29.299999999999997</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="9"/>
+        <v>47.099999999999994</v>
+      </c>
+      <c r="AD11" s="8">
         <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="AC11" s="9">
-        <f t="shared" si="11"/>
-        <v>53.2</v>
-      </c>
-      <c r="AD11" s="8">
-        <f t="shared" si="12"/>
-        <v>114.60000000000001</v>
+        <v>105.81</v>
       </c>
       <c r="AE11" s="8"/>
-      <c r="AF11" s="9">
-        <f t="shared" si="13"/>
-        <v>82.2</v>
+      <c r="AF11" s="2">
+        <f t="shared" si="7"/>
+        <v>76.399999999999991</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
@@ -2303,31 +2321,33 @@
       <c r="X12" s="7">
         <v>0</v>
       </c>
-      <c r="Y12" s="9">
-        <v>27</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>18</v>
+      <c r="Y12" s="2">
+        <f t="shared" si="13"/>
+        <v>29.299999999999997</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="14"/>
+        <v>8.9</v>
       </c>
       <c r="AA12" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="2">
+        <f t="shared" si="8"/>
+        <v>14.649999999999999</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="9"/>
+        <v>23.549999999999997</v>
+      </c>
+      <c r="AD12" s="8">
         <f t="shared" si="10"/>
-        <v>13.5</v>
-      </c>
-      <c r="AC12" s="9">
-        <f t="shared" si="11"/>
-        <v>31.5</v>
-      </c>
-      <c r="AD12" s="8">
-        <f t="shared" si="12"/>
-        <v>63.45</v>
+        <v>52.905000000000001</v>
       </c>
       <c r="AE12" s="8"/>
-      <c r="AF12" s="9">
-        <f t="shared" si="13"/>
-        <v>45</v>
+      <c r="AF12" s="2">
+        <f t="shared" si="7"/>
+        <v>38.199999999999996</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -2406,31 +2426,33 @@
       <c r="X13" s="7">
         <v>0</v>
       </c>
-      <c r="Y13" s="9">
-        <v>47</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>24</v>
+      <c r="Y13" s="2">
+        <f t="shared" si="13"/>
+        <v>49.809999999999995</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="14"/>
+        <v>15.129999999999999</v>
       </c>
       <c r="AA13" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="2">
+        <f t="shared" si="8"/>
+        <v>24.904999999999998</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="9"/>
+        <v>40.034999999999997</v>
+      </c>
+      <c r="AD13" s="8">
         <f t="shared" si="10"/>
-        <v>23.5</v>
-      </c>
-      <c r="AC13" s="9">
-        <f t="shared" si="11"/>
-        <v>47.5</v>
-      </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="12"/>
-        <v>99.45</v>
+        <v>89.938500000000005</v>
       </c>
       <c r="AE13" s="8"/>
-      <c r="AF13" s="9">
-        <f t="shared" si="13"/>
-        <v>71</v>
+      <c r="AF13" s="2">
+        <f t="shared" si="7"/>
+        <v>64.94</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
@@ -2506,14 +2528,29 @@
       <c r="X14" s="4">
         <v>0</v>
       </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="Y14" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
+      <c r="AB14" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
-      <c r="AF14" s="9"/>
+      <c r="AF14" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
@@ -2591,31 +2628,33 @@
       <c r="X15" s="7">
         <v>0</v>
       </c>
-      <c r="Y15" s="9">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>21</v>
+      <c r="Y15" s="2">
+        <f t="shared" si="13"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="14"/>
+        <v>12.459999999999999</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="9">
-        <f>Y15*(1-AA15)</f>
-        <v>39</v>
-      </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="11"/>
-        <v>21</v>
+      <c r="AB15" s="2">
+        <f t="shared" si="8"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="9"/>
+        <v>12.459999999999999</v>
       </c>
       <c r="AD15" s="8">
-        <f t="shared" si="12"/>
-        <v>84.15</v>
+        <f t="shared" si="10"/>
+        <v>74.066999999999993</v>
       </c>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="9">
-        <f t="shared" si="13"/>
-        <v>60</v>
+      <c r="AF15" s="2">
+        <f t="shared" si="7"/>
+        <v>53.48</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
@@ -2694,31 +2733,33 @@
       <c r="X16" s="7">
         <v>0</v>
       </c>
-      <c r="Y16" s="9">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>22</v>
+      <c r="Y16" s="2">
+        <f t="shared" si="13"/>
+        <v>46.293999999999997</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="14"/>
+        <v>14.061999999999999</v>
       </c>
       <c r="AA16" s="3">
         <v>0</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="2">
+        <f t="shared" si="8"/>
+        <v>46.293999999999997</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="9"/>
+        <v>14.061999999999999</v>
+      </c>
+      <c r="AD16" s="8">
         <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="AC16" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="12"/>
-        <v>93.75</v>
+        <v>83.5899</v>
       </c>
       <c r="AE16" s="8"/>
-      <c r="AF16" s="9">
-        <f t="shared" si="13"/>
-        <v>67</v>
+      <c r="AF16" s="2">
+        <f t="shared" si="7"/>
+        <v>60.355999999999995</v>
       </c>
       <c r="AP16" s="2"/>
     </row>
@@ -2796,31 +2837,33 @@
       <c r="X17" s="7">
         <v>0</v>
       </c>
-      <c r="Y17" s="9">
-        <v>90</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>36</v>
+      <c r="Y17" s="2">
+        <f t="shared" si="13"/>
+        <v>92.587999999999994</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="14"/>
+        <v>28.123999999999999</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="2">
+        <f t="shared" si="8"/>
+        <v>92.587999999999994</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="9"/>
+        <v>28.123999999999999</v>
+      </c>
+      <c r="AD17" s="8">
         <f t="shared" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="AD17" s="8">
-        <f t="shared" si="12"/>
-        <v>175.5</v>
+        <v>167.1798</v>
       </c>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="9">
-        <f t="shared" si="13"/>
-        <v>126</v>
+      <c r="AF17" s="2">
+        <f t="shared" si="7"/>
+        <v>120.71199999999999</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
@@ -2899,31 +2942,33 @@
       <c r="X18" s="7">
         <v>0</v>
       </c>
-      <c r="Y18" s="9">
-        <v>42</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>22</v>
+      <c r="Y18" s="2">
+        <f t="shared" si="13"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="14"/>
+        <v>12.459999999999999</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="2">
+        <f t="shared" si="8"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="9"/>
+        <v>12.459999999999999</v>
+      </c>
+      <c r="AD18" s="8">
         <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="12"/>
-        <v>89.7</v>
+        <v>74.066999999999993</v>
       </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="9">
-        <f t="shared" si="13"/>
-        <v>64</v>
+      <c r="AF18" s="2">
+        <f t="shared" si="7"/>
+        <v>53.48</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
@@ -3002,31 +3047,33 @@
       <c r="X19" s="7">
         <v>0</v>
       </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>16</v>
+      <c r="Y19" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA19" s="3">
         <v>0</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
       <c r="AE19" s="8"/>
-      <c r="AF19" s="9">
-        <f t="shared" si="13"/>
-        <v>16</v>
+      <c r="AF19" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
@@ -3105,31 +3152,33 @@
       <c r="X20" s="7">
         <v>0</v>
       </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>11</v>
+      <c r="Y20" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="9">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="12"/>
-        <v>16.5</v>
-      </c>
       <c r="AE20" s="8"/>
-      <c r="AF20" s="9">
-        <f t="shared" si="13"/>
-        <v>11</v>
+      <c r="AF20" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
@@ -3208,31 +3257,33 @@
       <c r="X21" s="7">
         <v>0</v>
       </c>
-      <c r="Y21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>16</v>
+      <c r="Y21" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="9">
-        <f t="shared" si="13"/>
-        <v>16</v>
+      <c r="AF21" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
@@ -3310,31 +3361,33 @@
       <c r="X22" s="7">
         <v>0</v>
       </c>
-      <c r="Y22" s="9">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>22</v>
+      <c r="Y22" s="2">
+        <f t="shared" si="13"/>
+        <v>39.262</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="14"/>
+        <v>11.926</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="2">
+        <f t="shared" si="8"/>
+        <v>39.262</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="9"/>
+        <v>11.926</v>
+      </c>
+      <c r="AD22" s="8">
         <f t="shared" si="10"/>
-        <v>39</v>
-      </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="12"/>
-        <v>85.65</v>
+        <v>70.892700000000005</v>
       </c>
       <c r="AE22" s="8"/>
-      <c r="AF22" s="9">
-        <f t="shared" si="13"/>
-        <v>61</v>
+      <c r="AF22" s="2">
+        <f t="shared" si="7"/>
+        <v>51.188000000000002</v>
       </c>
       <c r="AP22" s="2"/>
     </row>
@@ -3412,31 +3465,33 @@
       <c r="X23" s="7">
         <v>0</v>
       </c>
-      <c r="Y23" s="9">
-        <v>85</v>
-      </c>
-      <c r="Z23" s="9">
-        <v>35</v>
+      <c r="Y23" s="2">
+        <f t="shared" si="13"/>
+        <v>86.141999999999996</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="14"/>
+        <v>26.166</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="2">
+        <f t="shared" si="8"/>
+        <v>86.141999999999996</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="9"/>
+        <v>26.166</v>
+      </c>
+      <c r="AD23" s="8">
         <f t="shared" si="10"/>
-        <v>85</v>
-      </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="12"/>
-        <v>167.25</v>
+        <v>155.54070000000002</v>
       </c>
       <c r="AE23" s="8"/>
-      <c r="AF23" s="9">
-        <f t="shared" si="13"/>
-        <v>120</v>
+      <c r="AF23" s="2">
+        <f t="shared" si="7"/>
+        <v>112.30799999999999</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
@@ -3514,31 +3569,33 @@
       <c r="X24" s="7">
         <v>0</v>
       </c>
-      <c r="Y24" s="9">
-        <v>41</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>22</v>
+      <c r="Y24" s="2">
+        <f t="shared" si="13"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="14"/>
+        <v>12.459999999999999</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="2">
+        <f t="shared" si="8"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="9"/>
+        <v>12.459999999999999</v>
+      </c>
+      <c r="AD24" s="8">
         <f t="shared" si="10"/>
-        <v>41</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="12"/>
-        <v>88.35</v>
+        <v>74.066999999999993</v>
       </c>
       <c r="AE24" s="8"/>
-      <c r="AF24" s="9">
-        <f t="shared" si="13"/>
-        <v>63</v>
+      <c r="AF24" s="2">
+        <f t="shared" si="7"/>
+        <v>53.48</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
@@ -3616,31 +3673,33 @@
       <c r="X25" s="7">
         <v>0</v>
       </c>
-      <c r="Y25" s="9">
-        <v>39</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>23</v>
+      <c r="Y25" s="2">
+        <f t="shared" si="13"/>
+        <v>42.192</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="14"/>
+        <v>12.815999999999999</v>
       </c>
       <c r="AA25" s="11">
         <v>0</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="2">
+        <f t="shared" si="8"/>
+        <v>42.192</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="9"/>
+        <v>12.815999999999999</v>
+      </c>
+      <c r="AD25" s="8">
         <f t="shared" si="10"/>
-        <v>39</v>
-      </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="12"/>
-        <v>87.15</v>
+        <v>76.183199999999999</v>
       </c>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="9">
-        <f t="shared" si="13"/>
-        <v>62</v>
+      <c r="AF25" s="2">
+        <f t="shared" si="7"/>
+        <v>55.007999999999996</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
@@ -3715,14 +3774,29 @@
       <c r="X26" s="4">
         <v>0</v>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
+      <c r="Y26" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AA26" s="11"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
+      <c r="AB26" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
-      <c r="AF26" s="9"/>
+      <c r="AF26" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -3799,31 +3873,33 @@
       <c r="X27" s="7">
         <v>0</v>
       </c>
-      <c r="Y27" s="9">
-        <v>36</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>4</v>
+      <c r="Y27" s="2">
+        <f t="shared" si="13"/>
+        <v>38.089999999999996</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="14"/>
+        <v>11.57</v>
       </c>
       <c r="AA27" s="11">
         <v>0</v>
       </c>
-      <c r="AB27" s="9">
+      <c r="AB27" s="2">
+        <f t="shared" si="8"/>
+        <v>38.089999999999996</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="9"/>
+        <v>11.57</v>
+      </c>
+      <c r="AD27" s="8">
         <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="12"/>
-        <v>54.6</v>
+        <v>68.776499999999999</v>
       </c>
       <c r="AE27" s="8"/>
-      <c r="AF27" s="9">
-        <f t="shared" si="13"/>
-        <v>40</v>
+      <c r="AF27" s="2">
+        <f t="shared" si="7"/>
+        <v>49.66</v>
       </c>
       <c r="AP27" s="2"/>
     </row>
@@ -3901,31 +3977,33 @@
       <c r="X28" s="7">
         <v>0</v>
       </c>
-      <c r="Y28" s="9">
-        <v>52</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>25</v>
+      <c r="Y28" s="2">
+        <f t="shared" si="13"/>
+        <v>52.739999999999995</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="14"/>
+        <v>16.02</v>
       </c>
       <c r="AA28" s="11">
         <v>0</v>
       </c>
-      <c r="AB28" s="9">
+      <c r="AB28" s="2">
+        <f t="shared" si="8"/>
+        <v>52.739999999999995</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="9"/>
+        <v>16.02</v>
+      </c>
+      <c r="AD28" s="8">
         <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-      <c r="AC28" s="9">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="AD28" s="8">
-        <f t="shared" si="12"/>
-        <v>107.7</v>
+        <v>95.228999999999999</v>
       </c>
       <c r="AE28" s="8"/>
-      <c r="AF28" s="9">
-        <f t="shared" si="13"/>
-        <v>77</v>
+      <c r="AF28" s="2">
+        <f t="shared" si="7"/>
+        <v>68.759999999999991</v>
       </c>
       <c r="AP28" s="2"/>
     </row>
@@ -4003,31 +4081,33 @@
       <c r="X29" s="7">
         <v>0</v>
       </c>
-      <c r="Y29" s="9">
-        <v>100</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>39</v>
+      <c r="Y29" s="2">
+        <f t="shared" si="13"/>
+        <v>100.79199999999999</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="14"/>
+        <v>30.616</v>
       </c>
       <c r="AA29" s="11">
         <v>0</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="2">
+        <f t="shared" si="8"/>
+        <v>100.79199999999999</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="9"/>
+        <v>30.616</v>
+      </c>
+      <c r="AD29" s="8">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AC29" s="9">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="12"/>
-        <v>193.5</v>
+        <v>181.9932</v>
       </c>
       <c r="AE29" s="8"/>
-      <c r="AF29" s="9">
-        <f t="shared" si="13"/>
-        <v>139</v>
+      <c r="AF29" s="2">
+        <f t="shared" si="7"/>
+        <v>131.40799999999999</v>
       </c>
       <c r="AP29" s="2"/>
     </row>
@@ -4105,31 +4185,33 @@
       <c r="X30" s="7">
         <v>0</v>
       </c>
-      <c r="Y30" s="9">
-        <v>50</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>25</v>
+      <c r="Y30" s="2">
+        <f t="shared" si="13"/>
+        <v>49.223999999999997</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="14"/>
+        <v>14.952</v>
       </c>
       <c r="AA30" s="11">
         <v>0</v>
       </c>
-      <c r="AB30" s="9">
+      <c r="AB30" s="2">
+        <f t="shared" si="8"/>
+        <v>49.223999999999997</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="9"/>
+        <v>14.952</v>
+      </c>
+      <c r="AD30" s="8">
         <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="AD30" s="8">
-        <f t="shared" si="12"/>
-        <v>105</v>
+        <v>88.880399999999995</v>
       </c>
       <c r="AE30" s="8"/>
-      <c r="AF30" s="9">
-        <f t="shared" si="13"/>
-        <v>75</v>
+      <c r="AF30" s="2">
+        <f t="shared" si="7"/>
+        <v>64.176000000000002</v>
       </c>
       <c r="AP30" s="2"/>
     </row>
@@ -4207,31 +4289,33 @@
       <c r="X31" s="7">
         <v>0</v>
       </c>
-      <c r="Y31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>14</v>
+      <c r="Y31" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA31" s="11">
         <v>0</v>
       </c>
-      <c r="AB31" s="9">
+      <c r="AB31" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="9">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
       <c r="AE31" s="8"/>
-      <c r="AF31" s="9">
-        <f t="shared" si="13"/>
-        <v>14</v>
+      <c r="AF31" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -4308,31 +4392,33 @@
       <c r="X32" s="7">
         <v>0</v>
       </c>
-      <c r="Y32" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="9">
-        <v>12</v>
+      <c r="Y32" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA32" s="11">
         <v>0</v>
       </c>
-      <c r="AB32" s="9">
+      <c r="AB32" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="9">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AD32" s="8">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="9">
-        <f t="shared" si="13"/>
-        <v>12</v>
+      <c r="AF32" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -4409,31 +4495,33 @@
       <c r="X33" s="7">
         <v>0</v>
       </c>
-      <c r="Y33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="9">
-        <v>14</v>
+      <c r="Y33" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA33" s="11">
         <v>0</v>
       </c>
-      <c r="AB33" s="9">
+      <c r="AB33" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
       <c r="AE33" s="8"/>
-      <c r="AF33" s="9">
-        <f t="shared" si="13"/>
-        <v>14</v>
+      <c r="AF33" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -4510,31 +4598,33 @@
       <c r="X34" s="7">
         <v>0</v>
       </c>
-      <c r="Y34" s="9">
-        <v>40</v>
-      </c>
-      <c r="Z34" s="9">
-        <v>23</v>
+      <c r="Y34" s="2">
+        <f t="shared" si="13"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="14"/>
+        <v>12.459999999999999</v>
       </c>
       <c r="AA34" s="11">
         <v>0</v>
       </c>
-      <c r="AB34" s="9">
+      <c r="AB34" s="2">
+        <f t="shared" si="8"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="9"/>
+        <v>12.459999999999999</v>
+      </c>
+      <c r="AD34" s="8">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="AC34" s="9">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="AD34" s="8">
-        <f t="shared" si="12"/>
-        <v>88.5</v>
+        <v>74.066999999999993</v>
       </c>
       <c r="AE34" s="8"/>
-      <c r="AF34" s="9">
-        <f t="shared" si="13"/>
-        <v>63</v>
+      <c r="AF34" s="2">
+        <f t="shared" si="7"/>
+        <v>53.48</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -4611,31 +4701,33 @@
       <c r="X35" s="7">
         <v>0</v>
       </c>
-      <c r="Y35" s="9">
-        <v>85</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>35</v>
+      <c r="Y35" s="2">
+        <f t="shared" si="13"/>
+        <v>86.141999999999996</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="14"/>
+        <v>26.166</v>
       </c>
       <c r="AA35" s="11">
         <v>0</v>
       </c>
-      <c r="AB35" s="9">
+      <c r="AB35" s="2">
+        <f t="shared" si="8"/>
+        <v>86.141999999999996</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="9"/>
+        <v>26.166</v>
+      </c>
+      <c r="AD35" s="8">
         <f t="shared" si="10"/>
-        <v>85</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="AD35" s="8">
-        <f t="shared" si="12"/>
-        <v>167.25</v>
+        <v>155.54070000000002</v>
       </c>
       <c r="AE35" s="8"/>
-      <c r="AF35" s="9">
-        <f t="shared" si="13"/>
-        <v>120</v>
+      <c r="AF35" s="2">
+        <f t="shared" si="7"/>
+        <v>112.30799999999999</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -4712,31 +4804,33 @@
       <c r="X36" s="7">
         <v>0</v>
       </c>
-      <c r="Y36" s="9">
-        <v>37</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>22</v>
+      <c r="Y36" s="2">
+        <f t="shared" si="13"/>
+        <v>38.089999999999996</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="14"/>
+        <v>11.57</v>
       </c>
       <c r="AA36" s="11">
         <v>0</v>
       </c>
-      <c r="AB36" s="9">
+      <c r="AB36" s="2">
+        <f t="shared" si="8"/>
+        <v>38.089999999999996</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="9"/>
+        <v>11.57</v>
+      </c>
+      <c r="AD36" s="8">
         <f t="shared" si="10"/>
-        <v>37</v>
-      </c>
-      <c r="AC36" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD36" s="8">
-        <f t="shared" si="12"/>
-        <v>82.95</v>
+        <v>68.776499999999999</v>
       </c>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="9">
-        <f t="shared" si="13"/>
-        <v>59</v>
+      <c r="AF36" s="2">
+        <f t="shared" si="7"/>
+        <v>49.66</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -4813,31 +4907,33 @@
       <c r="X37" s="7">
         <v>0</v>
       </c>
-      <c r="Y37" s="9">
-        <v>40</v>
-      </c>
-      <c r="Z37" s="9">
-        <v>23</v>
+      <c r="Y37" s="2">
+        <f t="shared" si="13"/>
+        <v>42.777999999999999</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="14"/>
+        <v>12.994</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
       </c>
-      <c r="AB37" s="9">
+      <c r="AB37" s="2">
+        <f t="shared" si="8"/>
+        <v>42.777999999999999</v>
+      </c>
+      <c r="AC37" s="2">
+        <f t="shared" si="9"/>
+        <v>12.994</v>
+      </c>
+      <c r="AD37" s="8">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="AC37" s="9">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="AD37" s="8">
-        <f t="shared" si="12"/>
-        <v>88.5</v>
+        <v>77.241299999999995</v>
       </c>
       <c r="AE37" s="8"/>
-      <c r="AF37" s="9">
-        <f t="shared" si="13"/>
-        <v>63</v>
+      <c r="AF37" s="2">
+        <f t="shared" si="7"/>
+        <v>55.771999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -4911,14 +5007,29 @@
       <c r="X38" s="4">
         <v>0</v>
       </c>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
+      <c r="Y38" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AA38" s="11"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
+      <c r="AB38" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="9"/>
+      <c r="AF38" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4994,31 +5105,33 @@
       <c r="X39" s="7">
         <v>0</v>
       </c>
-      <c r="Y39" s="9">
-        <v>39</v>
-      </c>
-      <c r="Z39" s="9">
-        <v>21</v>
+      <c r="Y39" s="2">
+        <f t="shared" si="13"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="14"/>
+        <v>12.459999999999999</v>
       </c>
       <c r="AA39" s="11">
         <v>0</v>
       </c>
-      <c r="AB39" s="9">
+      <c r="AB39" s="2">
+        <f t="shared" si="8"/>
+        <v>41.019999999999996</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="9"/>
+        <v>12.459999999999999</v>
+      </c>
+      <c r="AD39" s="8">
         <f t="shared" si="10"/>
-        <v>39</v>
-      </c>
-      <c r="AC39" s="9">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="AD39" s="8">
-        <f t="shared" si="12"/>
-        <v>84.15</v>
+        <v>74.066999999999993</v>
       </c>
       <c r="AE39" s="8"/>
-      <c r="AF39" s="9">
-        <f t="shared" si="13"/>
-        <v>60</v>
+      <c r="AF39" s="2">
+        <f t="shared" si="7"/>
+        <v>53.48</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -5095,31 +5208,33 @@
       <c r="X40" s="7">
         <v>0</v>
       </c>
-      <c r="Y40" s="9">
-        <v>45</v>
-      </c>
-      <c r="Z40" s="9">
-        <v>22</v>
+      <c r="Y40" s="2">
+        <f t="shared" si="13"/>
+        <v>45.122</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="14"/>
+        <v>13.706</v>
       </c>
       <c r="AA40" s="11">
         <v>0</v>
       </c>
-      <c r="AB40" s="9">
+      <c r="AB40" s="2">
+        <f t="shared" si="8"/>
+        <v>45.122</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="9"/>
+        <v>13.706</v>
+      </c>
+      <c r="AD40" s="8">
         <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="AC40" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD40" s="8">
-        <f t="shared" si="12"/>
-        <v>93.75</v>
+        <v>81.473700000000008</v>
       </c>
       <c r="AE40" s="8"/>
-      <c r="AF40" s="9">
-        <f t="shared" si="13"/>
-        <v>67</v>
+      <c r="AF40" s="2">
+        <f t="shared" si="7"/>
+        <v>58.828000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -5196,31 +5311,33 @@
       <c r="X41" s="7">
         <v>0</v>
       </c>
-      <c r="Y41" s="9">
-        <v>95</v>
-      </c>
-      <c r="Z41" s="9">
-        <v>35</v>
+      <c r="Y41" s="2">
+        <f t="shared" si="13"/>
+        <v>96.69</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="14"/>
+        <v>29.369999999999997</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
       </c>
-      <c r="AB41" s="9">
+      <c r="AB41" s="2">
+        <f t="shared" si="8"/>
+        <v>96.69</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" si="9"/>
+        <v>29.369999999999997</v>
+      </c>
+      <c r="AD41" s="8">
         <f t="shared" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="12"/>
-        <v>180.75</v>
+        <v>174.5865</v>
       </c>
       <c r="AE41" s="8"/>
-      <c r="AF41" s="9">
-        <f t="shared" si="13"/>
-        <v>130</v>
+      <c r="AF41" s="2">
+        <f t="shared" si="7"/>
+        <v>126.06</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -5297,31 +5414,33 @@
       <c r="X42" s="7">
         <v>0</v>
       </c>
-      <c r="Y42" s="9">
-        <v>54</v>
-      </c>
-      <c r="Z42" s="9">
-        <v>23</v>
+      <c r="Y42" s="2">
+        <f t="shared" si="13"/>
+        <v>54.497999999999998</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="14"/>
+        <v>16.553999999999998</v>
       </c>
       <c r="AA42" s="11">
         <v>0.25</v>
       </c>
-      <c r="AB42" s="9">
+      <c r="AB42" s="2">
+        <f t="shared" si="8"/>
+        <v>40.8735</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="9"/>
+        <v>30.1785</v>
+      </c>
+      <c r="AD42" s="8">
         <f t="shared" si="10"/>
-        <v>40.5</v>
-      </c>
-      <c r="AC42" s="9">
-        <f t="shared" si="11"/>
-        <v>36.5</v>
-      </c>
-      <c r="AD42" s="8">
-        <f t="shared" si="12"/>
-        <v>107.4</v>
+        <v>98.403300000000002</v>
       </c>
       <c r="AE42" s="8"/>
-      <c r="AF42" s="9">
-        <f t="shared" si="13"/>
-        <v>77</v>
+      <c r="AF42" s="2">
+        <f t="shared" si="7"/>
+        <v>71.051999999999992</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -5398,31 +5517,33 @@
       <c r="X43" s="7">
         <v>0</v>
       </c>
-      <c r="Y43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="9">
-        <v>9</v>
+      <c r="Y43" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA43" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB43" s="9">
+      <c r="AB43" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="9">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="12"/>
-        <v>13.5</v>
-      </c>
       <c r="AE43" s="8"/>
-      <c r="AF43" s="9">
-        <f t="shared" si="13"/>
-        <v>9</v>
+      <c r="AF43" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -5499,31 +5620,33 @@
       <c r="X44" s="7">
         <v>0</v>
       </c>
-      <c r="Y44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>10</v>
+      <c r="Y44" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA44" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB44" s="9">
+      <c r="AB44" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="9">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AD44" s="8">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
       <c r="AE44" s="8"/>
-      <c r="AF44" s="9">
-        <f t="shared" si="13"/>
-        <v>10</v>
+      <c r="AF44" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -5600,31 +5723,33 @@
       <c r="X45" s="7">
         <v>0</v>
       </c>
-      <c r="Y45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="9">
-        <v>9</v>
+      <c r="Y45" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA45" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB45" s="9">
+      <c r="AB45" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC45" s="9">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AD45" s="8">
-        <f t="shared" si="12"/>
-        <v>13.5</v>
-      </c>
       <c r="AE45" s="8"/>
-      <c r="AF45" s="9">
-        <f t="shared" si="13"/>
-        <v>9</v>
+      <c r="AF45" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -5701,31 +5826,33 @@
       <c r="X46" s="7">
         <v>0</v>
       </c>
-      <c r="Y46" s="9">
-        <v>80</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>25</v>
+      <c r="Y46" s="2">
+        <f t="shared" si="13"/>
+        <v>96.69</v>
+      </c>
+      <c r="Z46" s="2">
+        <f t="shared" si="14"/>
+        <v>29.369999999999997</v>
       </c>
       <c r="AA46" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB46" s="9">
+      <c r="AB46" s="2">
+        <f t="shared" si="8"/>
+        <v>48.344999999999999</v>
+      </c>
+      <c r="AC46" s="2">
+        <f t="shared" si="9"/>
+        <v>77.715000000000003</v>
+      </c>
+      <c r="AD46" s="8">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="AC46" s="9">
-        <f t="shared" si="11"/>
-        <v>65</v>
-      </c>
-      <c r="AD46" s="8">
-        <f t="shared" si="12"/>
-        <v>145.5</v>
+        <v>174.5865</v>
       </c>
       <c r="AE46" s="8"/>
-      <c r="AF46" s="9">
-        <f t="shared" si="13"/>
-        <v>105</v>
+      <c r="AF46" s="2">
+        <f t="shared" si="7"/>
+        <v>126.06</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -5802,31 +5929,33 @@
       <c r="X47" s="7">
         <v>0</v>
       </c>
-      <c r="Y47" s="9">
-        <v>84</v>
-      </c>
-      <c r="Z47" s="9">
-        <v>30</v>
+      <c r="Y47" s="2">
+        <f t="shared" si="13"/>
+        <v>84.97</v>
+      </c>
+      <c r="Z47" s="2">
+        <f t="shared" si="14"/>
+        <v>25.81</v>
       </c>
       <c r="AA47" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB47" s="9">
+      <c r="AB47" s="2">
+        <f t="shared" si="8"/>
+        <v>42.484999999999999</v>
+      </c>
+      <c r="AC47" s="2">
+        <f t="shared" si="9"/>
+        <v>68.295000000000002</v>
+      </c>
+      <c r="AD47" s="8">
         <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="AC47" s="9">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="AD47" s="8">
-        <f t="shared" si="12"/>
-        <v>158.4</v>
+        <v>153.42449999999999</v>
       </c>
       <c r="AE47" s="8"/>
-      <c r="AF47" s="9">
-        <f t="shared" si="13"/>
-        <v>114</v>
+      <c r="AF47" s="2">
+        <f t="shared" si="7"/>
+        <v>110.78</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -5903,31 +6032,33 @@
       <c r="X48" s="7">
         <v>0</v>
       </c>
-      <c r="Y48" s="9">
-        <v>13</v>
-      </c>
-      <c r="Z48" s="9">
-        <v>14</v>
+      <c r="Y48" s="2">
+        <f t="shared" si="13"/>
+        <v>15.235999999999999</v>
+      </c>
+      <c r="Z48" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6280000000000001</v>
       </c>
       <c r="AA48" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB48" s="9">
+      <c r="AB48" s="2">
+        <f t="shared" si="8"/>
+        <v>7.6179999999999994</v>
+      </c>
+      <c r="AC48" s="2">
+        <f t="shared" si="9"/>
+        <v>12.245999999999999</v>
+      </c>
+      <c r="AD48" s="8">
         <f t="shared" si="10"/>
-        <v>6.5</v>
-      </c>
-      <c r="AC48" s="9">
-        <f t="shared" si="11"/>
-        <v>20.5</v>
-      </c>
-      <c r="AD48" s="8">
-        <f t="shared" si="12"/>
-        <v>38.549999999999997</v>
+        <v>27.5106</v>
       </c>
       <c r="AE48" s="8"/>
-      <c r="AF48" s="9">
-        <f t="shared" si="13"/>
-        <v>27</v>
+      <c r="AF48" s="2">
+        <f t="shared" si="7"/>
+        <v>19.863999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -6004,31 +6135,33 @@
       <c r="X49" s="7">
         <v>0</v>
       </c>
-      <c r="Y49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="9">
-        <v>10</v>
+      <c r="Y49" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AA49" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB49" s="9">
+      <c r="AB49" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC49" s="9">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AD49" s="8">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
       <c r="AE49" s="8"/>
-      <c r="AF49" s="9">
-        <f t="shared" si="13"/>
-        <v>10</v>
+      <c r="AF49" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
@@ -6102,14 +6235,29 @@
       <c r="X50" s="4">
         <v>0</v>
       </c>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
+      <c r="Y50" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AA50" s="11"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
+      <c r="AB50" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AD50" s="8"/>
       <c r="AE50" s="8"/>
-      <c r="AF50" s="9"/>
+      <c r="AF50" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -6185,31 +6333,33 @@
       <c r="X51" s="7">
         <v>0</v>
       </c>
-      <c r="Y51" s="9">
-        <v>46</v>
-      </c>
-      <c r="Z51" s="9">
-        <v>22</v>
+      <c r="Y51" s="2">
+        <f t="shared" si="13"/>
+        <v>49.223999999999997</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="14"/>
+        <v>14.952</v>
       </c>
       <c r="AA51" s="11">
         <v>0</v>
       </c>
-      <c r="AB51" s="9">
+      <c r="AB51" s="2">
+        <f t="shared" si="8"/>
+        <v>49.223999999999997</v>
+      </c>
+      <c r="AC51" s="2">
+        <f t="shared" si="9"/>
+        <v>14.952</v>
+      </c>
+      <c r="AD51" s="8">
         <f t="shared" si="10"/>
-        <v>46</v>
-      </c>
-      <c r="AC51" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD51" s="8">
-        <f t="shared" si="12"/>
-        <v>95.1</v>
+        <v>88.880399999999995</v>
       </c>
       <c r="AE51" s="8"/>
-      <c r="AF51" s="9">
-        <f t="shared" si="13"/>
-        <v>68</v>
+      <c r="AF51" s="2">
+        <f t="shared" si="7"/>
+        <v>64.176000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
@@ -6286,31 +6436,33 @@
       <c r="X52" s="7">
         <v>0</v>
       </c>
-      <c r="Y52" s="9">
-        <v>27</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>17</v>
+      <c r="Y52" s="2">
+        <f t="shared" si="13"/>
+        <v>27.541999999999998</v>
+      </c>
+      <c r="Z52" s="2">
+        <f t="shared" si="14"/>
+        <v>8.3659999999999997</v>
       </c>
       <c r="AA52" s="11">
         <v>0</v>
       </c>
-      <c r="AB52" s="9">
+      <c r="AB52" s="2">
+        <f t="shared" si="8"/>
+        <v>27.541999999999998</v>
+      </c>
+      <c r="AC52" s="2">
+        <f t="shared" si="9"/>
+        <v>8.3659999999999997</v>
+      </c>
+      <c r="AD52" s="8">
         <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="AC52" s="9">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="AD52" s="8">
-        <f t="shared" si="12"/>
-        <v>61.95</v>
+        <v>49.730699999999999</v>
       </c>
       <c r="AE52" s="8"/>
-      <c r="AF52" s="9">
-        <f t="shared" si="13"/>
-        <v>44</v>
+      <c r="AF52" s="2">
+        <f t="shared" si="7"/>
+        <v>35.908000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
@@ -6387,31 +6539,33 @@
       <c r="X53" s="7">
         <v>0</v>
       </c>
-      <c r="Y53" s="9">
-        <v>71</v>
-      </c>
-      <c r="Z53" s="9">
-        <v>28</v>
+      <c r="Y53" s="2">
+        <f t="shared" si="13"/>
+        <v>73.25</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="14"/>
+        <v>22.25</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
       </c>
-      <c r="AB53" s="9">
+      <c r="AB53" s="2">
+        <f t="shared" si="8"/>
+        <v>73.25</v>
+      </c>
+      <c r="AC53" s="2">
+        <f t="shared" si="9"/>
+        <v>22.25</v>
+      </c>
+      <c r="AD53" s="8">
         <f t="shared" si="10"/>
-        <v>71</v>
-      </c>
-      <c r="AC53" s="9">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="AD53" s="8">
-        <f t="shared" si="12"/>
-        <v>137.85000000000002</v>
+        <v>132.26249999999999</v>
       </c>
       <c r="AE53" s="8"/>
-      <c r="AF53" s="9">
-        <f t="shared" si="13"/>
-        <v>99</v>
+      <c r="AF53" s="2">
+        <f t="shared" si="7"/>
+        <v>95.5</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">

--- a/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{13D00A1C-3391-423C-BCA9-C500E0472599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDC2279-FB97-4FBD-90A4-359591B18773}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B47A3-08B2-4659-9392-0FC759DED88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="57530" yWindow="210" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +526,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -688,7 +694,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -701,6 +707,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -773,10 +780,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,13 +1102,13 @@
   <dimension ref="A1:AQ88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK5" sqref="AK5"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1304,7 +1307,7 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A53" si="5">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
@@ -1366,50 +1369,51 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>7</v>
+      <c r="U3" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V3" s="2">
-        <v>57.756160000000001</v>
+        <v>43</v>
       </c>
       <c r="W3" s="2">
-        <v>17.543679999999998</v>
+        <v>23.5</v>
       </c>
       <c r="X3" s="7">
         <v>0</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>57.756160000000001</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="1"/>
-        <v>17.543679999999998</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="2"/>
-        <v>57.756160000000001</v>
+        <v>43</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="3"/>
-        <v>17.543679999999998</v>
+        <v>23.5</v>
       </c>
       <c r="AD3" s="8">
         <f t="shared" ref="AD3" si="6">1.35*Y3+1.5*Z3</f>
-        <v>104.28633600000001</v>
+        <v>93.300000000000011</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="2">
         <f t="shared" ref="AF3:AF53" si="7">AB3+AC3</f>
-        <v>75.299840000000003</v>
+        <v>66.5</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1475,46 +1479,46 @@
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <v>41.899000000000001</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2">
-        <v>12.726999999999999</v>
+        <v>21</v>
       </c>
       <c r="X4" s="7">
         <v>0</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>41.899000000000001</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="1"/>
-        <v>12.726999999999999</v>
+        <v>21</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" ref="AB4:AB53" si="8">Y4*(1-AA4)</f>
-        <v>41.899000000000001</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" ref="AC4:AC53" si="9">Y4*AA4 + Z4</f>
-        <v>12.726999999999999</v>
+        <v>21</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" ref="AD4:AD53" si="10">1.35*Y4+1.5*Z4</f>
-        <v>75.654150000000001</v>
+        <v>82.800000000000011</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="2">
         <f t="shared" si="7"/>
-        <v>54.625999999999998</v>
+        <v>59</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1576,50 +1580,51 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>7</v>
+      <c r="U5" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V5" s="2">
-        <v>82.508800000000008</v>
+        <v>64</v>
       </c>
       <c r="W5" s="2">
-        <v>25.0624</v>
+        <v>25</v>
       </c>
       <c r="X5" s="7">
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" ref="Y4:Y53" si="11">IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),V5+X5*V5,IF(A4&lt;A5,V5-X6*V6/2,IF(A5&lt;A6,V5-(X4*V4)/2,V5-(X6*V6+X4*V4)/2))),0)</f>
-        <v>82.508800000000008</v>
+        <f t="shared" ref="Y5" si="11">IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),V5+X5*V5,IF(A4&lt;A5,V5-X6*V6/2,IF(A5&lt;A6,V5-(X4*V4)/2,V5-(X6*V6+X4*V4)/2))),0)</f>
+        <v>64</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" ref="Z4:Z53" si="12">IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),W5+X5*W5,IF(A4&lt;A5,W5-X6*W6/2,IF(A5&lt;A6,W5-(X4*W4)/2,W5-(X6*W6+X4*W4)/2))),0)</f>
-        <v>25.0624</v>
+        <f t="shared" ref="Z5" si="12">IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),W5+X5*W5,IF(A4&lt;A5,W5-X6*W6/2,IF(A5&lt;A6,W5-(X4*W4)/2,W5-(X6*W6+X4*W4)/2))),0)</f>
+        <v>25</v>
       </c>
       <c r="AA5" s="3">
         <v>0</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="8"/>
-        <v>82.508800000000008</v>
+        <v>64</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="9"/>
-        <v>25.0624</v>
+        <v>25</v>
       </c>
       <c r="AD5" s="8">
         <f t="shared" si="10"/>
-        <v>148.98048000000003</v>
+        <v>123.9</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="2">
         <f t="shared" si="7"/>
-        <v>107.5712</v>
+        <v>89</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1685,46 +1690,46 @@
         <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>41.899000000000001</v>
+        <v>44</v>
       </c>
       <c r="W6" s="2">
-        <v>12.726999999999999</v>
+        <v>17</v>
       </c>
       <c r="X6" s="7">
         <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" ref="Y6:Y53" si="13">IFERROR(IF(ISNUMBER(SEARCH("Appui",C6)),V6+X6*V6,IF(A5&lt;A6,V6-X7*V7/2,IF(A6&lt;A7,V6-(X5*V5)/2,V6-(X7*V7+X5*V5)/2))),0)</f>
-        <v>41.899000000000001</v>
+        <v>44</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" ref="Z6:Z53" si="14">IFERROR(IF(ISNUMBER(SEARCH("Appui",C6)),W6+X6*W6,IF(A5&lt;A6,W6-X7*W7/2,IF(A6&lt;A7,W6-(X5*W5)/2,W6-(X7*W7+X5*W5)/2))),0)</f>
-        <v>12.726999999999999</v>
+        <v>17</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="8"/>
-        <v>41.899000000000001</v>
+        <v>44</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="9"/>
-        <v>12.726999999999999</v>
+        <v>17</v>
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="10"/>
-        <v>75.654150000000001</v>
+        <v>84.9</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="2">
         <f t="shared" si="7"/>
-        <v>54.625999999999998</v>
+        <v>61</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1768,8 +1773,9 @@
       <c r="N7">
         <v>0.04</v>
       </c>
-      <c r="O7">
-        <v>1</v>
+      <c r="O7" s="12">
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1786,50 +1792,51 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>7</v>
+      <c r="U7" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V7" s="2">
-        <v>0.75007999999999997</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>0.22783999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X7" s="7">
         <v>0</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="13"/>
-        <v>0.75007999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="14"/>
-        <v>0.22783999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="8"/>
-        <v>0.75007999999999997</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="9"/>
-        <v>0.22783999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="10"/>
-        <v>1.354368</v>
+        <v>12.75</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="2">
         <f t="shared" si="7"/>
-        <v>0.9779199999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1895,46 +1902,46 @@
         <v>0</v>
       </c>
       <c r="V8" s="2">
-        <v>0.64460000000000006</v>
+        <v>3</v>
       </c>
       <c r="W8" s="2">
-        <v>0.1958</v>
+        <v>5</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="13"/>
-        <v>0.64460000000000006</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="14"/>
-        <v>0.1958</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="3">
         <v>0.25</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="8"/>
-        <v>0.48345000000000005</v>
+        <v>2.25</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="9"/>
-        <v>0.35694999999999999</v>
+        <v>5.75</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="10"/>
-        <v>1.1639100000000002</v>
+        <v>11.55</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="2">
         <f t="shared" si="7"/>
-        <v>0.84040000000000004</v>
+        <v>8</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1978,8 +1985,9 @@
       <c r="N9">
         <v>0.04</v>
       </c>
-      <c r="O9">
-        <v>1</v>
+      <c r="O9" s="12">
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1996,49 +2004,50 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>7</v>
+      <c r="U9" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V9" s="2">
-        <v>0.75007999999999997</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>0.22783999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X9" s="7">
         <v>0</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="13"/>
-        <v>0.75007999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="14"/>
-        <v>0.22783999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" s="3">
         <v>0.5</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="8"/>
-        <v>0.37503999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="9"/>
-        <v>0.60287999999999997</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="10"/>
-        <v>1.354368</v>
+        <v>12.75</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="2">
         <f t="shared" si="7"/>
-        <v>0.9779199999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2085,14 +2094,15 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10">
-        <v>3.0799666758620691E-4</v>
+      <c r="P10" s="12">
+        <f>1.539*0.0001</f>
+        <v>1.539E-4</v>
       </c>
       <c r="Q10">
         <v>0.04</v>
       </c>
-      <c r="R10">
-        <v>1</v>
+      <c r="R10" s="12">
+        <v>4</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2104,46 +2114,46 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>36.917999999999999</v>
+        <v>35</v>
       </c>
       <c r="W10" s="2">
-        <v>11.213999999999999</v>
+        <v>15</v>
       </c>
       <c r="X10" s="7">
         <v>0</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="13"/>
-        <v>36.917999999999999</v>
+        <v>35</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="14"/>
-        <v>11.213999999999999</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="3">
         <v>0.5</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="8"/>
-        <v>18.459</v>
+        <v>17.5</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="9"/>
-        <v>29.672999999999998</v>
+        <v>32.5</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="10"/>
-        <v>66.660300000000007</v>
+        <v>69.75</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="2">
         <f t="shared" si="7"/>
-        <v>48.131999999999998</v>
+        <v>50</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2205,49 +2215,50 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>7</v>
+      <c r="U11" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V11" s="2">
-        <v>58.599999999999994</v>
+        <v>58</v>
       </c>
       <c r="W11" s="2">
-        <v>17.8</v>
+        <v>24.2</v>
       </c>
       <c r="X11" s="7">
         <v>0</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="13"/>
-        <v>58.599999999999994</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="14"/>
-        <v>17.8</v>
+        <v>24.2</v>
       </c>
       <c r="AA11" s="3">
         <v>0.5</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="8"/>
-        <v>29.299999999999997</v>
+        <v>29</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="9"/>
-        <v>47.099999999999994</v>
+        <v>53.2</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="10"/>
-        <v>105.81</v>
+        <v>114.60000000000001</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="2">
         <f t="shared" si="7"/>
-        <v>76.399999999999991</v>
+        <v>82.2</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2294,14 +2305,15 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>6.1599333517241381E-4</v>
+      <c r="P12" s="12">
+        <f>1.539*0.0001</f>
+        <v>1.539E-4</v>
       </c>
       <c r="Q12">
         <v>0.04</v>
       </c>
-      <c r="R12">
-        <v>1</v>
+      <c r="R12" s="12">
+        <v>8</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2313,46 +2325,46 @@
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>29.299999999999997</v>
+        <v>27</v>
       </c>
       <c r="W12" s="2">
-        <v>8.9</v>
+        <v>18</v>
       </c>
       <c r="X12" s="7">
         <v>0</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="13"/>
-        <v>29.299999999999997</v>
+        <v>27</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="14"/>
-        <v>8.9</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="3">
         <v>0.5</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="8"/>
-        <v>14.649999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="9"/>
-        <v>23.549999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="10"/>
-        <v>52.905000000000001</v>
+        <v>63.45</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="2">
         <f t="shared" si="7"/>
-        <v>38.199999999999996</v>
+        <v>45</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2418,46 +2430,46 @@
         <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>49.809999999999995</v>
+        <v>47</v>
       </c>
       <c r="W13" s="2">
-        <v>15.129999999999999</v>
+        <v>24</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="13"/>
-        <v>49.809999999999995</v>
+        <v>47</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="14"/>
-        <v>15.129999999999999</v>
+        <v>24</v>
       </c>
       <c r="AA13" s="3">
         <v>0.5</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="8"/>
-        <v>24.904999999999998</v>
+        <v>23.5</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="9"/>
-        <v>40.034999999999997</v>
+        <v>47.5</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="10"/>
-        <v>89.938500000000005</v>
+        <v>99.45</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="2">
         <f t="shared" si="7"/>
-        <v>64.94</v>
+        <v>71</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2519,12 +2531,8 @@
       <c r="U14" s="4">
         <v>0</v>
       </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
       <c r="X14" s="4">
         <v>0</v>
       </c>
@@ -2554,7 +2562,7 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2620,46 +2628,46 @@
         <v>7</v>
       </c>
       <c r="V15" s="2">
-        <v>41.019999999999996</v>
+        <v>39</v>
       </c>
       <c r="W15" s="2">
-        <v>12.459999999999999</v>
+        <v>21</v>
       </c>
       <c r="X15" s="7">
         <v>0</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="13"/>
-        <v>41.019999999999996</v>
+        <v>39</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="14"/>
-        <v>12.459999999999999</v>
+        <v>21</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="8"/>
-        <v>41.019999999999996</v>
+        <v>39</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="9"/>
-        <v>12.459999999999999</v>
+        <v>21</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="10"/>
-        <v>74.066999999999993</v>
+        <v>84.15</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="2">
         <f t="shared" si="7"/>
-        <v>53.48</v>
+        <v>60</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2725,45 +2733,45 @@
         <v>0</v>
       </c>
       <c r="V16" s="2">
-        <v>46.293999999999997</v>
+        <v>45</v>
       </c>
       <c r="W16" s="2">
-        <v>14.061999999999999</v>
+        <v>22</v>
       </c>
       <c r="X16" s="7">
         <v>0</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="13"/>
-        <v>46.293999999999997</v>
+        <v>45</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="14"/>
-        <v>14.061999999999999</v>
+        <v>22</v>
       </c>
       <c r="AA16" s="3">
         <v>0</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="8"/>
-        <v>46.293999999999997</v>
+        <v>45</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="9"/>
-        <v>14.061999999999999</v>
+        <v>22</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="10"/>
-        <v>83.5899</v>
+        <v>93.75</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="2">
         <f t="shared" si="7"/>
-        <v>60.355999999999995</v>
+        <v>67</v>
       </c>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2829,46 +2837,46 @@
         <v>7</v>
       </c>
       <c r="V17" s="2">
-        <v>92.587999999999994</v>
+        <v>90</v>
       </c>
       <c r="W17" s="2">
-        <v>28.123999999999999</v>
+        <v>36</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="13"/>
-        <v>92.587999999999994</v>
+        <v>90</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="14"/>
-        <v>28.123999999999999</v>
+        <v>36</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="8"/>
-        <v>92.587999999999994</v>
+        <v>90</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="9"/>
-        <v>28.123999999999999</v>
+        <v>36</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="10"/>
-        <v>167.1798</v>
+        <v>175.5</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="2">
         <f t="shared" si="7"/>
-        <v>120.71199999999999</v>
+        <v>126</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2934,46 +2942,46 @@
         <v>0</v>
       </c>
       <c r="V18" s="2">
-        <v>41.019999999999996</v>
+        <v>42</v>
       </c>
       <c r="W18" s="2">
-        <v>12.459999999999999</v>
+        <v>22</v>
       </c>
       <c r="X18" s="7">
         <v>0</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="13"/>
-        <v>41.019999999999996</v>
+        <v>42</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="14"/>
-        <v>12.459999999999999</v>
+        <v>22</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="8"/>
-        <v>41.019999999999996</v>
+        <v>42</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="9"/>
-        <v>12.459999999999999</v>
+        <v>22</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="10"/>
-        <v>74.066999999999993</v>
+        <v>89.7</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="2">
         <f t="shared" si="7"/>
-        <v>53.48</v>
+        <v>64</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3042,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
@@ -3053,7 +3061,7 @@
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA19" s="3">
         <v>0</v>
@@ -3064,21 +3072,21 @@
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3147,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X20" s="7">
         <v>0</v>
@@ -3158,7 +3166,7 @@
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -3169,21 +3177,21 @@
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" s="8"/>
       <c r="AF20" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3252,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X21" s="7">
         <v>0</v>
@@ -3263,7 +3271,7 @@
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
@@ -3274,20 +3282,20 @@
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3353,45 +3361,45 @@
         <v>0</v>
       </c>
       <c r="V22" s="2">
-        <v>39.262</v>
+        <v>39</v>
       </c>
       <c r="W22" s="2">
-        <v>11.926</v>
+        <v>22</v>
       </c>
       <c r="X22" s="7">
         <v>0</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="13"/>
-        <v>39.262</v>
+        <v>39</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="14"/>
-        <v>11.926</v>
+        <v>22</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="8"/>
-        <v>39.262</v>
+        <v>39</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="9"/>
-        <v>11.926</v>
+        <v>22</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="10"/>
-        <v>70.892700000000005</v>
+        <v>85.65</v>
       </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="2">
         <f t="shared" si="7"/>
-        <v>51.188000000000002</v>
+        <v>61</v>
       </c>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3457,45 +3465,45 @@
         <v>10</v>
       </c>
       <c r="V23" s="2">
-        <v>86.141999999999996</v>
+        <v>85</v>
       </c>
       <c r="W23" s="2">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="X23" s="7">
         <v>0</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="13"/>
-        <v>86.141999999999996</v>
+        <v>85</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="14"/>
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="8"/>
-        <v>86.141999999999996</v>
+        <v>85</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="9"/>
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="10"/>
-        <v>155.54070000000002</v>
+        <v>167.25</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="2">
         <f t="shared" si="7"/>
-        <v>112.30799999999999</v>
+        <v>120</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3561,45 +3569,45 @@
         <v>0</v>
       </c>
       <c r="V24" s="2">
-        <v>41.019999999999996</v>
+        <v>41</v>
       </c>
       <c r="W24" s="2">
-        <v>12.459999999999999</v>
+        <v>22</v>
       </c>
       <c r="X24" s="7">
         <v>0</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="13"/>
-        <v>41.019999999999996</v>
+        <v>41</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="14"/>
-        <v>12.459999999999999</v>
+        <v>22</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="8"/>
-        <v>41.019999999999996</v>
+        <v>41</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="9"/>
-        <v>12.459999999999999</v>
+        <v>22</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="10"/>
-        <v>74.066999999999993</v>
+        <v>88.35</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="2">
         <f t="shared" si="7"/>
-        <v>53.48</v>
+        <v>63</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3665,45 +3673,45 @@
         <v>7</v>
       </c>
       <c r="V25" s="2">
-        <v>42.192</v>
+        <v>39</v>
       </c>
       <c r="W25" s="2">
-        <v>12.815999999999999</v>
+        <v>23</v>
       </c>
       <c r="X25" s="7">
         <v>0</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="13"/>
-        <v>42.192</v>
+        <v>39</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="14"/>
-        <v>12.815999999999999</v>
+        <v>23</v>
       </c>
       <c r="AA25" s="11">
         <v>0</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="8"/>
-        <v>42.192</v>
+        <v>39</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="9"/>
-        <v>12.815999999999999</v>
+        <v>23</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="10"/>
-        <v>76.183199999999999</v>
+        <v>87.15</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="2">
         <f t="shared" si="7"/>
-        <v>55.007999999999996</v>
+        <v>62</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3765,12 +3773,8 @@
       <c r="U26" s="4">
         <v>0</v>
       </c>
-      <c r="V26" s="6">
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
       <c r="X26" s="4">
         <v>0</v>
       </c>
@@ -3799,7 +3803,7 @@
       </c>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3865,45 +3869,45 @@
         <v>7</v>
       </c>
       <c r="V27" s="2">
-        <v>38.089999999999996</v>
+        <v>36</v>
       </c>
       <c r="W27" s="2">
-        <v>11.57</v>
+        <v>4</v>
       </c>
       <c r="X27" s="7">
         <v>0</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="13"/>
-        <v>38.089999999999996</v>
+        <v>36</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="14"/>
-        <v>11.57</v>
+        <v>4</v>
       </c>
       <c r="AA27" s="11">
         <v>0</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="8"/>
-        <v>38.089999999999996</v>
+        <v>36</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="9"/>
-        <v>11.57</v>
+        <v>4</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="10"/>
-        <v>68.776499999999999</v>
+        <v>54.6</v>
       </c>
       <c r="AE27" s="8"/>
       <c r="AF27" s="2">
         <f t="shared" si="7"/>
-        <v>49.66</v>
+        <v>40</v>
       </c>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3969,45 +3973,45 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <v>52.739999999999995</v>
+        <v>52</v>
       </c>
       <c r="W28" s="2">
-        <v>16.02</v>
+        <v>25</v>
       </c>
       <c r="X28" s="7">
         <v>0</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="13"/>
-        <v>52.739999999999995</v>
+        <v>52</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="14"/>
-        <v>16.02</v>
+        <v>25</v>
       </c>
       <c r="AA28" s="11">
         <v>0</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="8"/>
-        <v>52.739999999999995</v>
+        <v>52</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="9"/>
-        <v>16.02</v>
+        <v>25</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="10"/>
-        <v>95.228999999999999</v>
+        <v>107.7</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="2">
         <f t="shared" si="7"/>
-        <v>68.759999999999991</v>
+        <v>77</v>
       </c>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4073,45 +4077,45 @@
         <v>7</v>
       </c>
       <c r="V29" s="2">
-        <v>100.79199999999999</v>
+        <v>100</v>
       </c>
       <c r="W29" s="2">
-        <v>30.616</v>
+        <v>39</v>
       </c>
       <c r="X29" s="7">
         <v>0</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="13"/>
-        <v>100.79199999999999</v>
+        <v>100</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="14"/>
-        <v>30.616</v>
+        <v>39</v>
       </c>
       <c r="AA29" s="11">
         <v>0</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="8"/>
-        <v>100.79199999999999</v>
+        <v>100</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="9"/>
-        <v>30.616</v>
+        <v>39</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="10"/>
-        <v>181.9932</v>
+        <v>193.5</v>
       </c>
       <c r="AE29" s="8"/>
       <c r="AF29" s="2">
         <f t="shared" si="7"/>
-        <v>131.40799999999999</v>
+        <v>139</v>
       </c>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4177,45 +4181,45 @@
         <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>49.223999999999997</v>
+        <v>50</v>
       </c>
       <c r="W30" s="2">
-        <v>14.952</v>
+        <v>25</v>
       </c>
       <c r="X30" s="7">
         <v>0</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="13"/>
-        <v>49.223999999999997</v>
+        <v>50</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="14"/>
-        <v>14.952</v>
+        <v>25</v>
       </c>
       <c r="AA30" s="11">
         <v>0</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="8"/>
-        <v>49.223999999999997</v>
+        <v>50</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="9"/>
-        <v>14.952</v>
+        <v>25</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="10"/>
-        <v>88.880399999999995</v>
+        <v>105</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="2">
         <f t="shared" si="7"/>
-        <v>64.176000000000002</v>
+        <v>75</v>
       </c>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4284,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X31" s="7">
         <v>0</v>
@@ -4295,7 +4299,7 @@
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA31" s="11">
         <v>0</v>
@@ -4306,19 +4310,19 @@
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4387,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X32" s="7">
         <v>0</v>
@@ -4398,7 +4402,7 @@
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA32" s="11">
         <v>0</v>
@@ -4409,19 +4413,19 @@
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4490,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X33" s="7">
         <v>0</v>
@@ -4501,7 +4505,7 @@
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA33" s="11">
         <v>0</v>
@@ -4512,19 +4516,19 @@
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4590,44 +4594,44 @@
         <v>0</v>
       </c>
       <c r="V34" s="2">
-        <v>41.019999999999996</v>
+        <v>40</v>
       </c>
       <c r="W34" s="2">
-        <v>12.459999999999999</v>
+        <v>23</v>
       </c>
       <c r="X34" s="7">
         <v>0</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="13"/>
-        <v>41.019999999999996</v>
+        <v>40</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="14"/>
-        <v>12.459999999999999</v>
+        <v>23</v>
       </c>
       <c r="AA34" s="11">
         <v>0</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="8"/>
-        <v>41.019999999999996</v>
+        <v>40</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="9"/>
-        <v>12.459999999999999</v>
+        <v>23</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="10"/>
-        <v>74.066999999999993</v>
+        <v>88.5</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="2">
         <f t="shared" si="7"/>
-        <v>53.48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4693,44 +4697,44 @@
         <v>10</v>
       </c>
       <c r="V35" s="2">
-        <v>86.141999999999996</v>
+        <v>85</v>
       </c>
       <c r="W35" s="2">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="X35" s="7">
         <v>0</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="13"/>
-        <v>86.141999999999996</v>
+        <v>85</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="14"/>
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AA35" s="11">
         <v>0</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="8"/>
-        <v>86.141999999999996</v>
+        <v>85</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="9"/>
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="10"/>
-        <v>155.54070000000002</v>
+        <v>167.25</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="2">
         <f t="shared" si="7"/>
-        <v>112.30799999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4796,44 +4800,44 @@
         <v>0</v>
       </c>
       <c r="V36" s="2">
-        <v>38.089999999999996</v>
+        <v>37</v>
       </c>
       <c r="W36" s="2">
-        <v>11.57</v>
+        <v>22</v>
       </c>
       <c r="X36" s="7">
         <v>0</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="13"/>
-        <v>38.089999999999996</v>
+        <v>37</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="14"/>
-        <v>11.57</v>
+        <v>22</v>
       </c>
       <c r="AA36" s="11">
         <v>0</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="8"/>
-        <v>38.089999999999996</v>
+        <v>37</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="9"/>
-        <v>11.57</v>
+        <v>22</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="10"/>
-        <v>68.776499999999999</v>
+        <v>82.95</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="2">
         <f t="shared" si="7"/>
-        <v>49.66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4899,44 +4903,44 @@
         <v>0</v>
       </c>
       <c r="V37" s="2">
-        <v>42.777999999999999</v>
+        <v>40</v>
       </c>
       <c r="W37" s="2">
-        <v>12.994</v>
+        <v>23</v>
       </c>
       <c r="X37" s="7">
         <v>0</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="13"/>
-        <v>42.777999999999999</v>
+        <v>40</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="14"/>
-        <v>12.994</v>
+        <v>23</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="8"/>
-        <v>42.777999999999999</v>
+        <v>40</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="9"/>
-        <v>12.994</v>
+        <v>23</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="10"/>
-        <v>77.241299999999995</v>
+        <v>88.5</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="2">
         <f t="shared" si="7"/>
-        <v>55.771999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4998,12 +5002,8 @@
       <c r="U38" s="4">
         <v>0</v>
       </c>
-      <c r="V38" s="6">
-        <v>0</v>
-      </c>
-      <c r="W38" s="6">
-        <v>0</v>
-      </c>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
       <c r="X38" s="4">
         <v>0</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5097,44 +5097,44 @@
         <v>7</v>
       </c>
       <c r="V39" s="2">
-        <v>41.019999999999996</v>
+        <v>39</v>
       </c>
       <c r="W39" s="2">
-        <v>12.459999999999999</v>
+        <v>21</v>
       </c>
       <c r="X39" s="7">
         <v>0</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="13"/>
-        <v>41.019999999999996</v>
+        <v>39</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="14"/>
-        <v>12.459999999999999</v>
+        <v>21</v>
       </c>
       <c r="AA39" s="11">
         <v>0</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="8"/>
-        <v>41.019999999999996</v>
+        <v>39</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="9"/>
-        <v>12.459999999999999</v>
+        <v>21</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="10"/>
-        <v>74.066999999999993</v>
+        <v>84.15</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="2">
         <f t="shared" si="7"/>
-        <v>53.48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5200,44 +5200,44 @@
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <v>45.122</v>
+        <v>45</v>
       </c>
       <c r="W40" s="2">
-        <v>13.706</v>
+        <v>22</v>
       </c>
       <c r="X40" s="7">
         <v>0</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="13"/>
-        <v>45.122</v>
+        <v>45</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="14"/>
-        <v>13.706</v>
+        <v>22</v>
       </c>
       <c r="AA40" s="11">
         <v>0</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="8"/>
-        <v>45.122</v>
+        <v>45</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="9"/>
-        <v>13.706</v>
+        <v>22</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="10"/>
-        <v>81.473700000000008</v>
+        <v>93.75</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="2">
         <f t="shared" si="7"/>
-        <v>58.828000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5303,44 +5303,44 @@
         <v>7</v>
       </c>
       <c r="V41" s="2">
-        <v>96.69</v>
+        <v>95</v>
       </c>
       <c r="W41" s="2">
-        <v>29.369999999999997</v>
+        <v>35</v>
       </c>
       <c r="X41" s="7">
         <v>0</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="13"/>
-        <v>96.69</v>
+        <v>95</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="14"/>
-        <v>29.369999999999997</v>
+        <v>35</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="8"/>
-        <v>96.69</v>
+        <v>95</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="9"/>
-        <v>29.369999999999997</v>
+        <v>35</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="10"/>
-        <v>174.5865</v>
+        <v>180.75</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="2">
         <f t="shared" si="7"/>
-        <v>126.06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5406,44 +5406,44 @@
         <v>0</v>
       </c>
       <c r="V42" s="2">
-        <v>54.497999999999998</v>
+        <v>54</v>
       </c>
       <c r="W42" s="2">
-        <v>16.553999999999998</v>
+        <v>23</v>
       </c>
       <c r="X42" s="7">
         <v>0</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="13"/>
-        <v>54.497999999999998</v>
+        <v>54</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="14"/>
-        <v>16.553999999999998</v>
+        <v>23</v>
       </c>
       <c r="AA42" s="11">
         <v>0.25</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="8"/>
-        <v>40.8735</v>
+        <v>40.5</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="9"/>
-        <v>30.1785</v>
+        <v>36.5</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="10"/>
-        <v>98.403300000000002</v>
+        <v>107.4</v>
       </c>
       <c r="AE42" s="8"/>
       <c r="AF42" s="2">
         <f t="shared" si="7"/>
-        <v>71.051999999999992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X43" s="7">
         <v>0</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA43" s="11">
         <v>0.5</v>
@@ -5534,19 +5534,19 @@
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE43" s="8"/>
       <c r="AF43" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X44" s="7">
         <v>0</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="Z44" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA44" s="11">
         <v>0.5</v>
@@ -5637,19 +5637,19 @@
       </c>
       <c r="AC44" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE44" s="8"/>
       <c r="AF44" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X45" s="7">
         <v>0</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA45" s="11">
         <v>0.5</v>
@@ -5740,19 +5740,19 @@
       </c>
       <c r="AC45" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD45" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" s="8"/>
       <c r="AF45" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5818,44 +5818,44 @@
         <v>0</v>
       </c>
       <c r="V46" s="2">
-        <v>96.69</v>
+        <v>80</v>
       </c>
       <c r="W46" s="2">
-        <v>29.369999999999997</v>
+        <v>25</v>
       </c>
       <c r="X46" s="7">
         <v>0</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="13"/>
-        <v>96.69</v>
+        <v>80</v>
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="14"/>
-        <v>29.369999999999997</v>
+        <v>25</v>
       </c>
       <c r="AA46" s="11">
         <v>0.5</v>
       </c>
       <c r="AB46" s="2">
         <f t="shared" si="8"/>
-        <v>48.344999999999999</v>
+        <v>40</v>
       </c>
       <c r="AC46" s="2">
         <f t="shared" si="9"/>
-        <v>77.715000000000003</v>
+        <v>65</v>
       </c>
       <c r="AD46" s="8">
         <f t="shared" si="10"/>
-        <v>174.5865</v>
+        <v>145.5</v>
       </c>
       <c r="AE46" s="8"/>
       <c r="AF46" s="2">
         <f t="shared" si="7"/>
-        <v>126.06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5921,44 +5921,44 @@
         <v>10</v>
       </c>
       <c r="V47" s="2">
-        <v>84.97</v>
+        <v>84</v>
       </c>
       <c r="W47" s="2">
-        <v>25.81</v>
+        <v>30</v>
       </c>
       <c r="X47" s="7">
         <v>0</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="13"/>
-        <v>84.97</v>
+        <v>84</v>
       </c>
       <c r="Z47" s="2">
         <f t="shared" si="14"/>
-        <v>25.81</v>
+        <v>30</v>
       </c>
       <c r="AA47" s="11">
         <v>0.5</v>
       </c>
       <c r="AB47" s="2">
         <f t="shared" si="8"/>
-        <v>42.484999999999999</v>
+        <v>42</v>
       </c>
       <c r="AC47" s="2">
         <f t="shared" si="9"/>
-        <v>68.295000000000002</v>
+        <v>72</v>
       </c>
       <c r="AD47" s="8">
         <f t="shared" si="10"/>
-        <v>153.42449999999999</v>
+        <v>158.4</v>
       </c>
       <c r="AE47" s="8"/>
       <c r="AF47" s="2">
         <f t="shared" si="7"/>
-        <v>110.78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6024,44 +6024,44 @@
         <v>0</v>
       </c>
       <c r="V48" s="2">
-        <v>15.235999999999999</v>
+        <v>13</v>
       </c>
       <c r="W48" s="2">
-        <v>4.6280000000000001</v>
+        <v>14</v>
       </c>
       <c r="X48" s="7">
         <v>0</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" si="13"/>
-        <v>15.235999999999999</v>
+        <v>13</v>
       </c>
       <c r="Z48" s="2">
         <f t="shared" si="14"/>
-        <v>4.6280000000000001</v>
+        <v>14</v>
       </c>
       <c r="AA48" s="11">
         <v>0.5</v>
       </c>
       <c r="AB48" s="2">
         <f t="shared" si="8"/>
-        <v>7.6179999999999994</v>
+        <v>6.5</v>
       </c>
       <c r="AC48" s="2">
         <f t="shared" si="9"/>
-        <v>12.245999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="AD48" s="8">
         <f t="shared" si="10"/>
-        <v>27.5106</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="AE48" s="8"/>
       <c r="AF48" s="2">
         <f t="shared" si="7"/>
-        <v>19.863999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X49" s="7">
         <v>0</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA49" s="11">
         <v>0.5</v>
@@ -6152,19 +6152,19 @@
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD49" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE49" s="8"/>
       <c r="AF49" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6226,12 +6226,8 @@
       <c r="U50" s="4">
         <v>0</v>
       </c>
-      <c r="V50" s="6">
-        <v>0</v>
-      </c>
-      <c r="W50" s="6">
-        <v>0</v>
-      </c>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
       <c r="X50" s="4">
         <v>0</v>
       </c>
@@ -6259,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6325,44 +6321,44 @@
         <v>1</v>
       </c>
       <c r="V51" s="2">
-        <v>49.223999999999997</v>
+        <v>46</v>
       </c>
       <c r="W51" s="2">
-        <v>14.952</v>
+        <v>22</v>
       </c>
       <c r="X51" s="7">
         <v>0</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="13"/>
-        <v>49.223999999999997</v>
+        <v>46</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" si="14"/>
-        <v>14.952</v>
+        <v>22</v>
       </c>
       <c r="AA51" s="11">
         <v>0</v>
       </c>
       <c r="AB51" s="2">
         <f t="shared" si="8"/>
-        <v>49.223999999999997</v>
+        <v>46</v>
       </c>
       <c r="AC51" s="2">
         <f t="shared" si="9"/>
-        <v>14.952</v>
+        <v>22</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="10"/>
-        <v>88.880399999999995</v>
+        <v>95.1</v>
       </c>
       <c r="AE51" s="8"/>
       <c r="AF51" s="2">
         <f t="shared" si="7"/>
-        <v>64.176000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6428,44 +6424,44 @@
         <v>1</v>
       </c>
       <c r="V52" s="2">
-        <v>27.541999999999998</v>
+        <v>27</v>
       </c>
       <c r="W52" s="2">
-        <v>8.3659999999999997</v>
+        <v>17</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="13"/>
-        <v>27.541999999999998</v>
+        <v>27</v>
       </c>
       <c r="Z52" s="2">
         <f t="shared" si="14"/>
-        <v>8.3659999999999997</v>
+        <v>17</v>
       </c>
       <c r="AA52" s="11">
         <v>0</v>
       </c>
       <c r="AB52" s="2">
         <f t="shared" si="8"/>
-        <v>27.541999999999998</v>
+        <v>27</v>
       </c>
       <c r="AC52" s="2">
         <f t="shared" si="9"/>
-        <v>8.3659999999999997</v>
+        <v>17</v>
       </c>
       <c r="AD52" s="8">
         <f t="shared" si="10"/>
-        <v>49.730699999999999</v>
+        <v>61.95</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="2">
         <f t="shared" si="7"/>
-        <v>35.908000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6531,44 +6527,44 @@
         <v>1</v>
       </c>
       <c r="V53" s="2">
-        <v>73.25</v>
+        <v>71</v>
       </c>
       <c r="W53" s="2">
-        <v>22.25</v>
+        <v>28</v>
       </c>
       <c r="X53" s="7">
         <v>0</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="13"/>
-        <v>73.25</v>
+        <v>71</v>
       </c>
       <c r="Z53" s="2">
         <f t="shared" si="14"/>
-        <v>22.25</v>
+        <v>28</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
       </c>
       <c r="AB53" s="2">
         <f t="shared" si="8"/>
-        <v>73.25</v>
+        <v>71</v>
       </c>
       <c r="AC53" s="2">
         <f t="shared" si="9"/>
-        <v>22.25</v>
+        <v>28</v>
       </c>
       <c r="AD53" s="8">
         <f t="shared" si="10"/>
-        <v>132.26249999999999</v>
+        <v>137.85000000000002</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="2">
         <f t="shared" si="7"/>
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G54" s="1"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -6582,7 +6578,7 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="9"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G55" s="1"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -6596,7 +6592,7 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="9"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G56" s="1"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -6610,7 +6606,7 @@
       <c r="AE56" s="8"/>
       <c r="AF56" s="9"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G57" s="1"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
@@ -6624,7 +6620,7 @@
       <c r="AE57" s="8"/>
       <c r="AF57" s="9"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G58" s="1"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
@@ -6638,7 +6634,7 @@
       <c r="AE58" s="8"/>
       <c r="AF58" s="9"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="3"/>
@@ -6648,7 +6644,7 @@
       <c r="AE59" s="8"/>
       <c r="AF59" s="9"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="3"/>
@@ -6658,7 +6654,7 @@
       <c r="AE60" s="8"/>
       <c r="AF60" s="9"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X61" s="7"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6669,7 +6665,7 @@
       <c r="AE61" s="8"/>
       <c r="AF61" s="9"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X62" s="7"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6680,7 +6676,7 @@
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X63" s="7"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6691,7 +6687,7 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="9"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X64" s="7"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6702,7 +6698,7 @@
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
     </row>
-    <row r="65" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X65" s="7"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6713,7 +6709,7 @@
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
     </row>
-    <row r="66" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X66" s="7"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -6724,7 +6720,7 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
     </row>
-    <row r="67" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X67" s="7"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -6735,7 +6731,7 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
     </row>
-    <row r="68" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X68" s="7"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -6746,7 +6742,7 @@
       <c r="AE68" s="9"/>
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X69" s="7"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -6757,7 +6753,7 @@
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X70" s="7"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -6768,7 +6764,7 @@
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X71" s="7"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -6779,7 +6775,7 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X72" s="7"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -6790,7 +6786,7 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="7"/>
@@ -6803,7 +6799,7 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="7"/>
@@ -6816,7 +6812,7 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="7"/>
@@ -6829,7 +6825,7 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
     </row>
-    <row r="76" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G76" s="1"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
@@ -6842,7 +6838,7 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="7"/>
@@ -6855,7 +6851,7 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="7"/>
@@ -6868,7 +6864,7 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
     </row>
-    <row r="79" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G79" s="1"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
@@ -6881,7 +6877,7 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G80" s="1"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
@@ -6894,7 +6890,7 @@
       <c r="AE80" s="9"/>
       <c r="AF80" s="9"/>
     </row>
-    <row r="81" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="22:32" x14ac:dyDescent="0.35">
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="7"/>
@@ -6907,7 +6903,7 @@
       <c r="AE81" s="9"/>
       <c r="AF81" s="9"/>
     </row>
-    <row r="82" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="22:32" x14ac:dyDescent="0.35">
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
       <c r="X82" s="7"/>
@@ -6920,7 +6916,7 @@
       <c r="AE82" s="9"/>
       <c r="AF82" s="9"/>
     </row>
-    <row r="83" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="22:32" x14ac:dyDescent="0.35">
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="7"/>
@@ -6933,7 +6929,7 @@
       <c r="AE83" s="9"/>
       <c r="AF83" s="9"/>
     </row>
-    <row r="84" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="22:32" x14ac:dyDescent="0.35">
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="7"/>
@@ -6945,7 +6941,7 @@
       <c r="AE84" s="9"/>
       <c r="AF84" s="9"/>
     </row>
-    <row r="85" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="22:32" x14ac:dyDescent="0.35">
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="7"/>
@@ -6957,7 +6953,7 @@
       <c r="AE85" s="9"/>
       <c r="AF85" s="9"/>
     </row>
-    <row r="86" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="22:32" x14ac:dyDescent="0.35">
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="7"/>
@@ -6969,7 +6965,7 @@
       <c r="AE86" s="9"/>
       <c r="AF86" s="9"/>
     </row>
-    <row r="87" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="22:32" x14ac:dyDescent="0.35">
       <c r="X87" s="7"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -6979,7 +6975,7 @@
       <c r="AE87" s="9"/>
       <c r="AF87" s="9"/>
     </row>
-    <row r="88" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="22:32" x14ac:dyDescent="0.35">
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AB88" s="9"/>

--- a/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B47A3-08B2-4659-9392-0FC759DED88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{4E8B47A3-08B2-4659-9392-0FC759DED88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4F7B83A-6861-4D05-88DF-BBE799C7A40F}"/>
   <bookViews>
-    <workbookView xWindow="57530" yWindow="210" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -782,6 +782,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1101,14 +1105,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AQ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1307,7 +1311,7 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A53" si="5">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
@@ -1413,7 +1417,7 @@
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1518,7 +1522,7 @@
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1624,7 +1628,7 @@
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1729,7 +1733,7 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1836,7 +1840,7 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -1941,7 +1945,7 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2047,7 +2051,7 @@
       </c>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2153,7 +2157,7 @@
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2258,7 +2262,7 @@
       </c>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2364,7 +2368,7 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2469,7 +2473,7 @@
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -2562,7 +2566,7 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2624,8 +2628,9 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>7</v>
+      <c r="U15" s="12">
+        <f>7-3</f>
+        <v>4</v>
       </c>
       <c r="V15" s="2">
         <v>39</v>
@@ -2667,7 +2672,7 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2771,7 +2776,7 @@
       </c>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2833,8 +2838,9 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>7</v>
+      <c r="U17" s="12">
+        <f>7-1+2</f>
+        <v>8</v>
       </c>
       <c r="V17" s="2">
         <v>90</v>
@@ -2876,7 +2882,7 @@
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -2981,7 +2987,7 @@
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3037,14 +3043,15 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="S19">
-        <v>0</v>
+      <c r="S19" s="12">
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>0</v>
+      <c r="U19" s="12">
+        <f>0+4</f>
+        <v>4</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
@@ -3086,7 +3093,7 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3191,7 +3198,7 @@
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3247,14 +3254,15 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21">
-        <v>0</v>
+      <c r="S21" s="12">
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>0</v>
+      <c r="U21" s="12">
+        <f>0+4</f>
+        <v>4</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -3295,7 +3303,7 @@
       </c>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3399,7 +3407,7 @@
       </c>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3462,6 +3470,7 @@
         <v>0</v>
       </c>
       <c r="U23">
+        <f>10</f>
         <v>10</v>
       </c>
       <c r="V23" s="2">
@@ -3503,7 +3512,7 @@
       </c>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3607,7 +3616,7 @@
       </c>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3669,8 +3678,9 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
-        <v>7</v>
+      <c r="U25" s="12">
+        <f>7-3</f>
+        <v>4</v>
       </c>
       <c r="V25" s="2">
         <v>39</v>
@@ -3711,7 +3721,7 @@
       </c>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3803,7 +3813,7 @@
       </c>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3865,8 +3875,9 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>7</v>
+      <c r="U27" s="12">
+        <f>7-3</f>
+        <v>4</v>
       </c>
       <c r="V27" s="2">
         <v>36</v>
@@ -3907,7 +3918,7 @@
       </c>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4011,7 +4022,7 @@
       </c>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4073,8 +4084,9 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29">
-        <v>7</v>
+      <c r="U29" s="12">
+        <f>7+3</f>
+        <v>10</v>
       </c>
       <c r="V29" s="2">
         <v>100</v>
@@ -4115,7 +4127,7 @@
       </c>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4219,7 +4231,7 @@
       </c>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4275,14 +4287,15 @@
       <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31">
-        <v>0</v>
+      <c r="S31" s="12">
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
-      <c r="U31">
-        <v>0</v>
+      <c r="U31" s="12">
+        <f>0+4</f>
+        <v>4</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
@@ -4322,7 +4335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4425,7 +4438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4481,14 +4494,15 @@
       <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33">
-        <v>0</v>
+      <c r="S33" s="12">
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33">
-        <v>0</v>
+      <c r="U33" s="12">
+        <f>0+4</f>
+        <v>4</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -4528,7 +4542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4631,7 +4645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4734,7 +4748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4837,7 +4851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4893,14 +4907,15 @@
       <c r="R37">
         <v>1</v>
       </c>
-      <c r="S37">
-        <v>0</v>
+      <c r="S37" s="12">
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37">
-        <v>0</v>
+      <c r="U37" s="12">
+        <f>7-3</f>
+        <v>4</v>
       </c>
       <c r="V37" s="2">
         <v>40</v>
@@ -4940,7 +4955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -5031,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5093,8 +5108,9 @@
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39">
-        <v>7</v>
+      <c r="U39" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V39" s="2">
         <v>39</v>
@@ -5134,7 +5150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5237,7 +5253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5299,8 +5315,9 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>7</v>
+      <c r="U41" s="12">
+        <f>7-1+2</f>
+        <v>8</v>
       </c>
       <c r="V41" s="2">
         <v>95</v>
@@ -5340,7 +5357,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5443,7 +5460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5546,7 +5563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5593,14 +5610,15 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44">
-        <v>6.1599333517241381E-4</v>
+      <c r="P44" s="12">
+        <f>1.539*0.0001</f>
+        <v>1.539E-4</v>
       </c>
       <c r="Q44">
         <v>0.04</v>
       </c>
-      <c r="R44">
-        <v>1</v>
+      <c r="R44" s="12">
+        <v>8</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5649,7 +5667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5711,8 +5729,9 @@
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>7</v>
+      <c r="U45" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V45" s="2">
         <v>0</v>
@@ -5752,7 +5771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5799,14 +5818,15 @@
       <c r="O46">
         <v>1</v>
       </c>
-      <c r="P46">
-        <v>6.1599333517241381E-4</v>
+      <c r="P46" s="12">
+        <f>1.539*0.0001</f>
+        <v>1.539E-4</v>
       </c>
       <c r="Q46">
         <v>0.04</v>
       </c>
-      <c r="R46">
-        <v>1</v>
+      <c r="R46" s="12">
+        <v>8</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5855,7 +5875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5958,7 +5978,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6005,14 +6025,15 @@
       <c r="O48">
         <v>1</v>
       </c>
-      <c r="P48">
-        <v>6.1599333517241381E-4</v>
+      <c r="P48" s="12">
+        <f>1.539*0.0001</f>
+        <v>1.539E-4</v>
       </c>
       <c r="Q48">
         <v>0.04</v>
       </c>
-      <c r="R48">
-        <v>1</v>
+      <c r="R48" s="12">
+        <v>8</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -6061,7 +6082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6164,7 +6185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6255,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6358,7 +6379,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6461,7 +6482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6564,7 +6585,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G54" s="1"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -6578,7 +6599,7 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="9"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -6592,7 +6613,7 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="9"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G56" s="1"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -6606,7 +6627,7 @@
       <c r="AE56" s="8"/>
       <c r="AF56" s="9"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G57" s="1"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
@@ -6620,7 +6641,7 @@
       <c r="AE57" s="8"/>
       <c r="AF57" s="9"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G58" s="1"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
@@ -6634,7 +6655,7 @@
       <c r="AE58" s="8"/>
       <c r="AF58" s="9"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="3"/>
@@ -6644,7 +6665,7 @@
       <c r="AE59" s="8"/>
       <c r="AF59" s="9"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="3"/>
@@ -6654,7 +6675,7 @@
       <c r="AE60" s="8"/>
       <c r="AF60" s="9"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X61" s="7"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6665,7 +6686,7 @@
       <c r="AE61" s="8"/>
       <c r="AF61" s="9"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X62" s="7"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6676,7 +6697,7 @@
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X63" s="7"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6687,7 +6708,7 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="9"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X64" s="7"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6698,7 +6719,7 @@
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
     </row>
-    <row r="65" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X65" s="7"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6709,7 +6730,7 @@
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
     </row>
-    <row r="66" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X66" s="7"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -6720,7 +6741,7 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
     </row>
-    <row r="67" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X67" s="7"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -6731,7 +6752,7 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
     </row>
-    <row r="68" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X68" s="7"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -6742,7 +6763,7 @@
       <c r="AE68" s="9"/>
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X69" s="7"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -6753,7 +6774,7 @@
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X70" s="7"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -6764,7 +6785,7 @@
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X71" s="7"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -6775,7 +6796,7 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:32" x14ac:dyDescent="0.25">
       <c r="X72" s="7"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -6786,7 +6807,7 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:32" x14ac:dyDescent="0.25">
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="7"/>
@@ -6799,7 +6820,7 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:32" x14ac:dyDescent="0.25">
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="7"/>
@@ -6812,7 +6833,7 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:32" x14ac:dyDescent="0.25">
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="7"/>
@@ -6825,7 +6846,7 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
     </row>
-    <row r="76" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G76" s="1"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
@@ -6838,7 +6859,7 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:32" x14ac:dyDescent="0.25">
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="7"/>
@@ -6851,7 +6872,7 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:32" x14ac:dyDescent="0.25">
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="7"/>
@@ -6864,7 +6885,7 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
     </row>
-    <row r="79" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G79" s="1"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
@@ -6877,7 +6898,7 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G80" s="1"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
@@ -6890,7 +6911,7 @@
       <c r="AE80" s="9"/>
       <c r="AF80" s="9"/>
     </row>
-    <row r="81" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="7"/>
@@ -6903,7 +6924,7 @@
       <c r="AE81" s="9"/>
       <c r="AF81" s="9"/>
     </row>
-    <row r="82" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
       <c r="X82" s="7"/>
@@ -6916,7 +6937,7 @@
       <c r="AE82" s="9"/>
       <c r="AF82" s="9"/>
     </row>
-    <row r="83" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="7"/>
@@ -6929,7 +6950,7 @@
       <c r="AE83" s="9"/>
       <c r="AF83" s="9"/>
     </row>
-    <row r="84" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="7"/>
@@ -6941,7 +6962,7 @@
       <c r="AE84" s="9"/>
       <c r="AF84" s="9"/>
     </row>
-    <row r="85" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="7"/>
@@ -6953,7 +6974,7 @@
       <c r="AE85" s="9"/>
       <c r="AF85" s="9"/>
     </row>
-    <row r="86" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="7"/>
@@ -6965,7 +6986,7 @@
       <c r="AE86" s="9"/>
       <c r="AF86" s="9"/>
     </row>
-    <row r="87" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="22:32" x14ac:dyDescent="0.25">
       <c r="X87" s="7"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -6975,7 +6996,7 @@
       <c r="AE87" s="9"/>
       <c r="AF87" s="9"/>
     </row>
-    <row r="88" spans="22:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="22:32" x14ac:dyDescent="0.25">
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AB88" s="9"/>
